--- a/french_verbs.xlsx
+++ b/french_verbs.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/code/josephkunz/vocab-trainer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C4DABC-58A4-4349-8E02-C863981A02CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6F2FA-6FC4-6C48-8FBD-DD78F5336CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{EBAC5B8D-1F20-734D-A212-0D294CE1DEFD}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="15820" windowHeight="16000" xr2:uid="{EBAC5B8D-1F20-734D-A212-0D294CE1DEFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="verbs" sheetId="1" r:id="rId1"/>
+    <sheet name="nouns adj." sheetId="5" r:id="rId2"/>
+    <sheet name="verbes refleches" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId4"/>
+    <sheet name="numbers" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">verbs!$C$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="143">
   <si>
     <t xml:space="preserve">french </t>
   </si>
@@ -244,6 +248,228 @@
   </si>
   <si>
     <t>to leave</t>
+  </si>
+  <si>
+    <t>voudrais</t>
+  </si>
+  <si>
+    <t>souhaite</t>
+  </si>
+  <si>
+    <t>to wish</t>
+  </si>
+  <si>
+    <t>acheter</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>1 000 000</t>
+  </si>
+  <si>
+    <t>1 000</t>
+  </si>
+  <si>
+    <t>10 000</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>deux</t>
+  </si>
+  <si>
+    <t>trois</t>
+  </si>
+  <si>
+    <t>quatre</t>
+  </si>
+  <si>
+    <t>cinq</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>huit</t>
+  </si>
+  <si>
+    <t>neuf</t>
+  </si>
+  <si>
+    <t>dix</t>
+  </si>
+  <si>
+    <t>onze</t>
+  </si>
+  <si>
+    <t>deuze</t>
+  </si>
+  <si>
+    <t>treize</t>
+  </si>
+  <si>
+    <t>quatorze</t>
+  </si>
+  <si>
+    <t>quinze</t>
+  </si>
+  <si>
+    <t>seize</t>
+  </si>
+  <si>
+    <t>dix-sept</t>
+  </si>
+  <si>
+    <t>dix-neuf</t>
+  </si>
+  <si>
+    <t>dix-huit</t>
+  </si>
+  <si>
+    <t>vingt</t>
+  </si>
+  <si>
+    <t>vingt et un</t>
+  </si>
+  <si>
+    <t>trente</t>
+  </si>
+  <si>
+    <t>quarante</t>
+  </si>
+  <si>
+    <t>cinquante</t>
+  </si>
+  <si>
+    <t>soixante</t>
+  </si>
+  <si>
+    <t>soixante-dix</t>
+  </si>
+  <si>
+    <t>quatre-vingt-dix</t>
+  </si>
+  <si>
+    <t>quatre-vingt</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>duex cent</t>
+  </si>
+  <si>
+    <t>mille</t>
+  </si>
+  <si>
+    <t>dix mille</t>
+  </si>
+  <si>
+    <t>cent mille</t>
+  </si>
+  <si>
+    <t>un million</t>
+  </si>
+  <si>
+    <t>voyager</t>
+  </si>
+  <si>
+    <t>to travel</t>
+  </si>
+  <si>
+    <t>voyage</t>
+  </si>
+  <si>
+    <t>achete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as pris </t>
+  </si>
+  <si>
+    <t>je suis</t>
+  </si>
+  <si>
+    <t>tu es</t>
+  </si>
+  <si>
+    <t>il est</t>
+  </si>
+  <si>
+    <t>nous sommes</t>
+  </si>
+  <si>
+    <t>vous etes</t>
+  </si>
+  <si>
+    <t>ils sont</t>
+  </si>
+  <si>
+    <t>je ai</t>
+  </si>
+  <si>
+    <t>tu a</t>
+  </si>
+  <si>
+    <t>il as</t>
+  </si>
+  <si>
+    <t>nous avons</t>
+  </si>
+  <si>
+    <t>vous avez</t>
+  </si>
+  <si>
+    <t>il ont</t>
+  </si>
+  <si>
+    <t>tres mille cinq cent seixante-douze</t>
+  </si>
+  <si>
+    <t>sept mille huit cent quatre-vinght tres</t>
+  </si>
+  <si>
+    <t>1 300 498</t>
+  </si>
+  <si>
+    <t>un million tres cent mill quatre cent quatre-vingt-dix-neuf</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>s'en aller</t>
+  </si>
+  <si>
+    <t>se reposer</t>
+  </si>
+  <si>
+    <t>se laver</t>
+  </si>
+  <si>
+    <t>se lever</t>
+  </si>
+  <si>
+    <t>S'appeler</t>
   </si>
 </sst>
 </file>
@@ -604,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6353333A-D1FF-8B41-8905-AE650859DF4F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -833,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -844,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -855,7 +1081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -869,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -880,7 +1106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -891,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -905,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -916,7 +1142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -925,6 +1151,570 @@
       </c>
       <c r="D25" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188E9EA3-61C7-9A41-A10C-CA8880A246BF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879F2A89-DDEF-1143-805D-EA155FCFCE43}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C67994A-4483-744C-BDC6-2252E5CDE403}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCD7CA6-D7F9-9C48-9BCE-727BE2FC30F2}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>3572</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>7883</v>
+      </c>
+      <c r="F29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
